--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/67/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/67/FD_Curve.xlsx
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>6.667560000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>6667.56</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>7.37448</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>7374.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>7.74071</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>7740.71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0216</v>
+        <v>8.009069999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>10021.6</v>
+        <v>8009.07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309783</v>
+        <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>11.1847</v>
+        <v>8.241520000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>11184.7</v>
+        <v>8241.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340708</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1564</v>
+        <v>8.46442</v>
       </c>
       <c r="C13" t="n">
-        <v>12156.4</v>
+        <v>8464.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371633</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>13.1967</v>
+        <v>8.5983</v>
       </c>
       <c r="C14" t="n">
-        <v>13196.7</v>
+        <v>8598.299999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402558</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>13.9785</v>
+        <v>8.734440000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>13978.5</v>
+        <v>8734.440000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433483</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>14.6515</v>
+        <v>8.850200000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>14651.5</v>
+        <v>8850.200000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464403</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>15.221</v>
+        <v>8.94148</v>
       </c>
       <c r="C17" t="n">
-        <v>15221</v>
+        <v>8941.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495328</v>
+        <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>15.4248</v>
+        <v>9.024319999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>15424.8</v>
+        <v>9024.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526253</v>
+        <v>0.526292</v>
       </c>
       <c r="B19" t="n">
-        <v>15.4373</v>
+        <v>9.077500000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>15437.3</v>
+        <v>9077.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557178</v>
+        <v>0.557217</v>
       </c>
       <c r="B20" t="n">
-        <v>15.3979</v>
+        <v>9.124690000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>15397.9</v>
+        <v>9124.690000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588103</v>
+        <v>0.5881420000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>15.3403</v>
+        <v>9.148850000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>15340.3</v>
+        <v>9148.85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191449999999999</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>15.2793</v>
+        <v>9.165850000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>15279.3</v>
+        <v>9165.85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650322</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>15.218</v>
+        <v>9.173950000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>15218</v>
+        <v>9173.950000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681495</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>15.1545</v>
+        <v>9.171200000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>15154.5</v>
+        <v>9171.200000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126670000000001</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>15.0898</v>
+        <v>9.16325</v>
       </c>
       <c r="C25" t="n">
-        <v>15089.8</v>
+        <v>9163.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438439999999999</v>
+        <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>15.022</v>
+        <v>9.150600000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>15022</v>
+        <v>9150.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775017</v>
+        <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>14.9473</v>
+        <v>9.13546</v>
       </c>
       <c r="C27" t="n">
-        <v>14947.3</v>
+        <v>9135.459999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80619</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>14.8659</v>
+        <v>9.117870000000002</v>
       </c>
       <c r="C28" t="n">
-        <v>14865.9</v>
+        <v>9117.870000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837367</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>14.7777</v>
+        <v>9.098180000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>14777.7</v>
+        <v>9098.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685389999999999</v>
+        <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>14.6839</v>
+        <v>9.076600000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>14683.9</v>
+        <v>9076.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899712</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>14.5803</v>
+        <v>9.053709999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>14580.3</v>
+        <v>9053.709999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930889</v>
+        <v>0.9309229999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>14.4724</v>
+        <v>9.029860000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>14472.4</v>
+        <v>9029.860000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620610000000001</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>14.3543</v>
+        <v>9.004950000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>14354.3</v>
+        <v>9004.950000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993238</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>14.232</v>
+        <v>8.978940000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>14232</v>
+        <v>8978.940000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02426</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>14.0994</v>
+        <v>8.95204</v>
       </c>
       <c r="C35" t="n">
-        <v>14099.4</v>
+        <v>8952.040000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05523</v>
+        <v>1.05597</v>
       </c>
       <c r="B36" t="n">
-        <v>13.9601</v>
+        <v>8.924160000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>13960.1</v>
+        <v>8924.16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0862</v>
+        <v>1.08735</v>
       </c>
       <c r="B37" t="n">
-        <v>13.8142</v>
+        <v>8.895239999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>13814.2</v>
+        <v>8895.24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11717</v>
+        <v>1.11873</v>
       </c>
       <c r="B38" t="n">
-        <v>13.6579</v>
+        <v>8.865209999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>13657.9</v>
+        <v>8865.209999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14813</v>
+        <v>1.15011</v>
       </c>
       <c r="B39" t="n">
-        <v>13.497</v>
+        <v>8.833690000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>13497</v>
+        <v>8833.690000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.1791</v>
+        <v>1.18149</v>
       </c>
       <c r="B40" t="n">
-        <v>13.3244</v>
+        <v>8.80101</v>
       </c>
       <c r="C40" t="n">
-        <v>13324.4</v>
+        <v>8801.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21024</v>
+        <v>1.21287</v>
       </c>
       <c r="B41" t="n">
-        <v>8.638030000000001</v>
+        <v>8.76731</v>
       </c>
       <c r="C41" t="n">
-        <v>8638.030000000001</v>
+        <v>8767.309999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24096</v>
+        <v>1.24425</v>
       </c>
       <c r="B42" t="n">
-        <v>11.3775</v>
+        <v>8.732389999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>11377.5</v>
+        <v>8732.389999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27168</v>
+        <v>1.27563</v>
       </c>
       <c r="B43" t="n">
-        <v>11.6769</v>
+        <v>8.696280000000002</v>
       </c>
       <c r="C43" t="n">
-        <v>11676.9</v>
+        <v>8696.280000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30221</v>
+        <v>1.30701</v>
       </c>
       <c r="B44" t="n">
-        <v>12.9152</v>
+        <v>8.65859</v>
       </c>
       <c r="C44" t="n">
-        <v>12915.2</v>
+        <v>8658.59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33368</v>
+        <v>1.33839</v>
       </c>
       <c r="B45" t="n">
-        <v>12.95</v>
+        <v>8.61946</v>
       </c>
       <c r="C45" t="n">
-        <v>12950</v>
+        <v>8619.459999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36483</v>
+        <v>1.36977</v>
       </c>
       <c r="B46" t="n">
-        <v>12.4733</v>
+        <v>8.578850000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>12473.3</v>
+        <v>8578.85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39544</v>
+        <v>1.40115</v>
       </c>
       <c r="B47" t="n">
-        <v>12.3657</v>
+        <v>8.536700000000002</v>
       </c>
       <c r="C47" t="n">
-        <v>12365.7</v>
+        <v>8536.700000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42679</v>
+        <v>1.43253</v>
       </c>
       <c r="B48" t="n">
-        <v>12.5497</v>
+        <v>8.49315</v>
       </c>
       <c r="C48" t="n">
-        <v>12549.7</v>
+        <v>8493.15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45762</v>
+        <v>1.46374</v>
       </c>
       <c r="B49" t="n">
-        <v>12.3158</v>
+        <v>8.448320000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>12315.8</v>
+        <v>8448.32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48869</v>
+        <v>1.49469</v>
       </c>
       <c r="B50" t="n">
-        <v>12.0154</v>
+        <v>8.40198</v>
       </c>
       <c r="C50" t="n">
-        <v>12015.4</v>
+        <v>8401.98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51976</v>
+        <v>1.5257</v>
       </c>
       <c r="B51" t="n">
-        <v>11.7607</v>
+        <v>8.35406</v>
       </c>
       <c r="C51" t="n">
-        <v>11760.7</v>
+        <v>8354.059999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55078</v>
+        <v>1.55671</v>
       </c>
       <c r="B52" t="n">
-        <v>11.6271</v>
+        <v>8.30471</v>
       </c>
       <c r="C52" t="n">
-        <v>11627.1</v>
+        <v>8304.709999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58178</v>
+        <v>1.58769</v>
       </c>
       <c r="B53" t="n">
-        <v>11.3665</v>
+        <v>8.253819999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>11366.5</v>
+        <v>8253.82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61278</v>
+        <v>1.61874</v>
       </c>
       <c r="B54" t="n">
-        <v>11.0711</v>
+        <v>8.20041</v>
       </c>
       <c r="C54" t="n">
-        <v>11071.1</v>
+        <v>8200.41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64369</v>
+        <v>1.64957</v>
       </c>
       <c r="B55" t="n">
-        <v>10.7625</v>
+        <v>8.145529999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>10762.5</v>
+        <v>8145.53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67483</v>
+        <v>1.68078</v>
       </c>
       <c r="B56" t="n">
-        <v>10.6041</v>
+        <v>8.08774</v>
       </c>
       <c r="C56" t="n">
-        <v>10604.1</v>
+        <v>8087.74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70564</v>
+        <v>1.71157</v>
       </c>
       <c r="B57" t="n">
-        <v>10.3477</v>
+        <v>8.02854</v>
       </c>
       <c r="C57" t="n">
-        <v>10347.7</v>
+        <v>8028.54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73696</v>
+        <v>1.74276</v>
       </c>
       <c r="B58" t="n">
-        <v>10.186</v>
+        <v>7.96674</v>
       </c>
       <c r="C58" t="n">
-        <v>10186</v>
+        <v>7966.74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76762</v>
+        <v>1.77369</v>
       </c>
       <c r="B59" t="n">
-        <v>9.91385</v>
+        <v>7.902850000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>9913.85</v>
+        <v>7902.85</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79893</v>
+        <v>1.80466</v>
       </c>
       <c r="B60" t="n">
-        <v>9.633889999999999</v>
+        <v>7.83642</v>
       </c>
       <c r="C60" t="n">
-        <v>9633.889999999999</v>
+        <v>7836.42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82971</v>
+        <v>1.83579</v>
       </c>
       <c r="B61" t="n">
-        <v>9.43707</v>
+        <v>7.767399999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>9437.07</v>
+        <v>7767.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86091</v>
+        <v>1.86657</v>
       </c>
       <c r="B62" t="n">
-        <v>9.30721</v>
+        <v>7.69662</v>
       </c>
       <c r="C62" t="n">
-        <v>9307.209999999999</v>
+        <v>7696.62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89192</v>
+        <v>1.89778</v>
       </c>
       <c r="B63" t="n">
-        <v>9.083219999999999</v>
+        <v>7.62232</v>
       </c>
       <c r="C63" t="n">
-        <v>9083.219999999999</v>
+        <v>7622.32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92263</v>
+        <v>1.92853</v>
       </c>
       <c r="B64" t="n">
-        <v>8.87214</v>
+        <v>7.54645</v>
       </c>
       <c r="C64" t="n">
-        <v>8872.139999999999</v>
+        <v>7546.45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95404</v>
+        <v>1.95981</v>
       </c>
       <c r="B65" t="n">
-        <v>8.72865</v>
+        <v>7.46665</v>
       </c>
       <c r="C65" t="n">
-        <v>8728.65</v>
+        <v>7466.65</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98476</v>
+        <v>1.99044</v>
       </c>
       <c r="B66" t="n">
-        <v>8.568629999999999</v>
+        <v>7.386130000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>8568.629999999999</v>
+        <v>7386.13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01588</v>
+        <v>2.02192</v>
       </c>
       <c r="B67" t="n">
-        <v>8.430719999999999</v>
+        <v>7.3015</v>
       </c>
       <c r="C67" t="n">
-        <v>8430.719999999999</v>
+        <v>7301.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04684</v>
+        <v>2.05239</v>
       </c>
       <c r="B68" t="n">
-        <v>8.205780000000001</v>
+        <v>7.21662</v>
       </c>
       <c r="C68" t="n">
-        <v>8205.780000000001</v>
+        <v>7216.62</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07759</v>
+        <v>2.08382</v>
       </c>
       <c r="B69" t="n">
-        <v>8.096300000000001</v>
+        <v>7.12751</v>
       </c>
       <c r="C69" t="n">
-        <v>8096.3</v>
+        <v>7127.51</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10876</v>
+        <v>2.11454</v>
       </c>
       <c r="B70" t="n">
-        <v>7.97855</v>
+        <v>7.038180000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>7978.55</v>
+        <v>7038.18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13983</v>
+        <v>2.14573</v>
       </c>
       <c r="B71" t="n">
-        <v>7.8516</v>
+        <v>6.94555</v>
       </c>
       <c r="C71" t="n">
-        <v>7851.6</v>
+        <v>6945.55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17091</v>
+        <v>2.17672</v>
       </c>
       <c r="B72" t="n">
-        <v>7.7062</v>
+        <v>6.85253</v>
       </c>
       <c r="C72" t="n">
-        <v>7706.2</v>
+        <v>6852.53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20126</v>
+        <v>2.20763</v>
       </c>
       <c r="B73" t="n">
-        <v>7.61718</v>
+        <v>6.75724</v>
       </c>
       <c r="C73" t="n">
-        <v>7617.18</v>
+        <v>6757.24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23269</v>
+        <v>2.23892</v>
       </c>
       <c r="B74" t="n">
-        <v>7.516109999999999</v>
+        <v>6.660060000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>7516.11</v>
+        <v>6660.06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26411</v>
+        <v>2.26926</v>
       </c>
       <c r="B75" t="n">
-        <v>7.4067</v>
+        <v>6.56379</v>
       </c>
       <c r="C75" t="n">
-        <v>7406.7</v>
+        <v>6563.79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29451</v>
+        <v>2.30088</v>
       </c>
       <c r="B76" t="n">
-        <v>7.30416</v>
+        <v>6.46303</v>
       </c>
       <c r="C76" t="n">
-        <v>7304.16</v>
+        <v>6463.03</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32508</v>
+        <v>2.33177</v>
       </c>
       <c r="B77" t="n">
-        <v>7.20315</v>
+        <v>6.36367</v>
       </c>
       <c r="C77" t="n">
-        <v>7203.15</v>
+        <v>6363.67</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35693</v>
+        <v>2.3624</v>
       </c>
       <c r="B78" t="n">
-        <v>7.13618</v>
+        <v>6.26428</v>
       </c>
       <c r="C78" t="n">
-        <v>7136.18</v>
+        <v>6264.28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3882</v>
+        <v>2.3941</v>
       </c>
       <c r="B79" t="n">
-        <v>7.03666</v>
+        <v>6.162260000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>7036.66</v>
+        <v>6162.26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41816</v>
+        <v>2.4245</v>
       </c>
       <c r="B80" t="n">
-        <v>6.948939999999999</v>
+        <v>6.06245</v>
       </c>
       <c r="C80" t="n">
-        <v>6948.94</v>
+        <v>6062.45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44844</v>
+        <v>2.4549</v>
       </c>
       <c r="B81" t="n">
-        <v>6.90065</v>
+        <v>5.96507</v>
       </c>
       <c r="C81" t="n">
-        <v>6900.65</v>
+        <v>5965.07</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4767</v>
+        <v>2.4844</v>
       </c>
       <c r="B82" t="n">
-        <v>6.8934</v>
+        <v>5.86941</v>
       </c>
       <c r="C82" t="n">
-        <v>6893.4</v>
+        <v>5869.41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50486</v>
+        <v>2.51565</v>
       </c>
       <c r="B83" t="n">
-        <v>6.87934</v>
+        <v>5.767840000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>6879.34</v>
+        <v>5767.84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53525</v>
+        <v>2.54856</v>
       </c>
       <c r="B84" t="n">
-        <v>6.84886</v>
+        <v>5.664020000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>6848.86</v>
+        <v>5664.02</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57001</v>
+        <v>2.58001</v>
       </c>
       <c r="B85" t="n">
-        <v>6.835</v>
+        <v>5.56414</v>
       </c>
       <c r="C85" t="n">
-        <v>6835</v>
+        <v>5564.14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60487</v>
+        <v>2.60941</v>
       </c>
       <c r="B86" t="n">
-        <v>6.80315</v>
+        <v>5.47167</v>
       </c>
       <c r="C86" t="n">
-        <v>6803.15</v>
+        <v>5471.67</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63735</v>
+        <v>2.63867</v>
       </c>
       <c r="B87" t="n">
-        <v>6.78665</v>
+        <v>5.38069</v>
       </c>
       <c r="C87" t="n">
-        <v>6786.65</v>
+        <v>5380.69</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66935</v>
+        <v>2.66793</v>
       </c>
       <c r="B88" t="n">
-        <v>6.75584</v>
+        <v>5.29157</v>
       </c>
       <c r="C88" t="n">
-        <v>6755.84</v>
+        <v>5291.57</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70135</v>
+        <v>2.69718</v>
       </c>
       <c r="B89" t="n">
-        <v>6.70645</v>
+        <v>5.20635</v>
       </c>
       <c r="C89" t="n">
-        <v>6706.45</v>
+        <v>5206.35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73335</v>
+        <v>2.7275</v>
       </c>
       <c r="B90" t="n">
-        <v>6.67594</v>
+        <v>5.12146</v>
       </c>
       <c r="C90" t="n">
-        <v>6675.94</v>
+        <v>5121.46</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76535</v>
+        <v>2.76073</v>
       </c>
       <c r="B91" t="n">
-        <v>6.63673</v>
+        <v>5.03054</v>
       </c>
       <c r="C91" t="n">
-        <v>6636.73</v>
+        <v>5030.54</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79735</v>
+        <v>2.79273</v>
       </c>
       <c r="B92" t="n">
-        <v>6.60418</v>
+        <v>4.94418</v>
       </c>
       <c r="C92" t="n">
-        <v>6604.18</v>
+        <v>4944.18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82927</v>
+        <v>2.82473</v>
       </c>
       <c r="B93" t="n">
-        <v>6.55783</v>
+        <v>4.86257</v>
       </c>
       <c r="C93" t="n">
-        <v>6557.83</v>
+        <v>4862.57</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85901</v>
+        <v>2.85533</v>
       </c>
       <c r="B94" t="n">
-        <v>6.525720000000001</v>
+        <v>4.786560000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>6525.72</v>
+        <v>4786.56</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88786</v>
+        <v>2.8852</v>
       </c>
       <c r="B95" t="n">
-        <v>6.48601</v>
+        <v>4.713880000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>6486.01</v>
+        <v>4713.88</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91666</v>
+        <v>2.91507</v>
       </c>
       <c r="B96" t="n">
-        <v>6.44437</v>
+        <v>4.64391</v>
       </c>
       <c r="C96" t="n">
-        <v>6444.37</v>
+        <v>4643.91</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94546</v>
+        <v>2.94539</v>
       </c>
       <c r="B97" t="n">
-        <v>6.41952</v>
+        <v>4.58495</v>
       </c>
       <c r="C97" t="n">
-        <v>6419.52</v>
+        <v>4584.95</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97426</v>
+        <v>2.97355</v>
       </c>
       <c r="B98" t="n">
-        <v>6.381100000000001</v>
+        <v>4.53841</v>
       </c>
       <c r="C98" t="n">
-        <v>6381.1</v>
+        <v>4538.41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00306</v>
+        <v>3.00171</v>
       </c>
       <c r="B99" t="n">
-        <v>6.34534</v>
+        <v>4.496350000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>6345.34</v>
+        <v>4496.35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03186</v>
+        <v>3.03366</v>
       </c>
       <c r="B100" t="n">
-        <v>6.28698</v>
+        <v>4.467090000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>6286.98</v>
+        <v>4467.09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06066</v>
+        <v>3.06886</v>
       </c>
       <c r="B101" t="n">
-        <v>6.259609999999999</v>
+        <v>4.442010000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>6259.61</v>
+        <v>4442.01</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.08946</v>
+        <v>3.10294</v>
       </c>
       <c r="B102" t="n">
-        <v>6.22778</v>
+        <v>4.41563</v>
       </c>
       <c r="C102" t="n">
-        <v>6227.78</v>
+        <v>4415.63</v>
       </c>
     </row>
   </sheetData>
